--- a/2019_dkp/2020_01_13_dkp.xlsx
+++ b/2019_dkp/2020_01_13_dkp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\game\wow_dkp\2019_dkp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C07408-FF36-43B1-A149-DB8FBF512E01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A868B11B-5BEF-453F-B983-4C4EB735D904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -673,10 +673,10 @@
   <dimension ref="B1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="L33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2084,7 +2084,7 @@
         <v>51</v>
       </c>
       <c r="D48" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
@@ -2106,7 +2106,7 @@
       <c r="O48" s="5"/>
       <c r="P48" s="9">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">

--- a/2019_dkp/2020_01_13_dkp.xlsx
+++ b/2019_dkp/2020_01_13_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A868B11B-5BEF-453F-B983-4C4EB735D904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8289FA42-077F-45C1-9808-B5D2594433D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="3075" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -673,10 +673,10 @@
   <dimension ref="B1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -847,7 +847,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -869,7 +869,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="9">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
